--- a/Calibração/Motores/CalibrandoMotores.xlsx
+++ b/Calibração/Motores/CalibrandoMotores.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITALO DIAS\Desktop\TCC-Drone\Calibração\Motores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A707291C-F824-4517-86D4-58173E5C1CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36DE84-1D72-48B7-9804-A57051C11750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{097909A5-12FA-4257-A99D-C2302BCA1918}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{097909A5-12FA-4257-A99D-C2302BCA1918}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="4" r:id="rId1"/>
+    <sheet name="Casa 03-08-2021" sheetId="4" r:id="rId1"/>
+    <sheet name="Laboratório 09-08-2021" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>correnteA</t>
   </si>
@@ -67,6 +68,18 @@
   </si>
   <si>
     <t>Experimento realizado no dia 04/08/2021 às 12:17</t>
+  </si>
+  <si>
+    <t>Experimento realizado no laboratório com a porta fechada e ar condicionado no 16</t>
+  </si>
+  <si>
+    <t>Experimento realizado no dia 09/08/2021 às 10:50</t>
+  </si>
+  <si>
+    <t>Volt = 12.6V</t>
+  </si>
+  <si>
+    <t>Experimento realizado no dia 09/08/2021 às 11:20</t>
   </si>
 </sst>
 </file>
@@ -249,7 +262,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$14</c:f>
+              <c:f>'Casa 03-08-2021'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -284,7 +297,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$14:$K$14</c:f>
+              <c:f>'Casa 03-08-2021'!$B$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -333,7 +346,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$18</c:f>
+              <c:f>'Casa 03-08-2021'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -364,7 +377,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$18:$K$18</c:f>
+              <c:f>'Casa 03-08-2021'!$B$18:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -413,7 +426,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Planilha1!$A$22</c:f>
+              <c:f>'Casa 03-08-2021'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -444,7 +457,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$B$22:$K$22</c:f>
+              <c:f>'Casa 03-08-2021'!$B$22:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -485,6 +498,642 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-607E-4C8A-89FF-9F9E9855D08C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1110224784"/>
+        <c:axId val="1110221040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1110224784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Iteração</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110221040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1110221040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Corrente (A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110224784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Validando</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> o modelo dos motores - Corrente esperada x Corrente consumida</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laboratório 09-08-2021'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>correnteEsperada</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Laboratório 09-08-2021'!$B$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A82C-4A2C-A5D0-96BEDE662C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laboratório 09-08-2021'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MédiaA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Laboratório 09-08-2021'!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.5033333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0033333333333334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4266666666666672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.313333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9433333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A82C-4A2C-A5D0-96BEDE662C7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laboratório 09-08-2021'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MédiaB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Laboratório 09-08-2021'!$B$22:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79666666666666675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2033333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5533333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3233333333333337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7533333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1766666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A82C-4A2C-A5D0-96BEDE662C7B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -840,7 +1489,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1368,6 +2560,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FC2C69E-C976-4695-B92E-303E37CE396C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1683,7 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD7E557-E71B-4A5C-8772-37432EA7E32D}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -2509,4 +3744,839 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1423AF-BC08-4477-91EE-FB2773BC54D5}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4">
+        <v>60</v>
+      </c>
+      <c r="H3" s="4">
+        <v>70</v>
+      </c>
+      <c r="I3" s="4">
+        <v>80</v>
+      </c>
+      <c r="J3" s="4">
+        <v>90</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <f>0.06+0.05</f>
+        <v>0.11</v>
+      </c>
+      <c r="C4" s="4">
+        <f>0.07+0.05</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="D4" s="4">
+        <f>0.25+0.2</f>
+        <v>0.45</v>
+      </c>
+      <c r="E4" s="4">
+        <f>0.41+0.32</f>
+        <v>0.73</v>
+      </c>
+      <c r="F4" s="4">
+        <f>0.59+0.47</f>
+        <v>1.06</v>
+      </c>
+      <c r="G4" s="4">
+        <f>0.79+0.63</f>
+        <v>1.42</v>
+      </c>
+      <c r="H4" s="4">
+        <f>0.97+0.79</f>
+        <v>1.76</v>
+      </c>
+      <c r="I4" s="4">
+        <f>1.3+1.06</f>
+        <v>2.3600000000000003</v>
+      </c>
+      <c r="J4" s="4">
+        <f>1.75+1.4</f>
+        <v>3.15</v>
+      </c>
+      <c r="K4" s="4">
+        <f>2.22+1.82</f>
+        <v>4.04</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D5" s="4">
+        <f>0.26+0.19</f>
+        <v>0.45</v>
+      </c>
+      <c r="E5" s="4">
+        <f>0.42+0.32</f>
+        <v>0.74</v>
+      </c>
+      <c r="F5" s="4">
+        <f>0.61+0.47</f>
+        <v>1.08</v>
+      </c>
+      <c r="G5" s="4">
+        <f>0.81+0.64</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <f>1+0.79</f>
+        <v>1.79</v>
+      </c>
+      <c r="I5" s="4">
+        <f>1.33+1.06</f>
+        <v>2.39</v>
+      </c>
+      <c r="J5" s="4">
+        <f>1.77+1.43</f>
+        <v>3.2</v>
+      </c>
+      <c r="K5" s="4">
+        <f>2.25+1.83</f>
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="4">
+        <f>0.25+0.21</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="E6" s="4">
+        <f>0.4+0.34</f>
+        <v>0.74</v>
+      </c>
+      <c r="F6" s="4">
+        <f>0.58+0.49</f>
+        <v>1.0699999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <f>0.78+0.66</f>
+        <v>1.44</v>
+      </c>
+      <c r="H6" s="4">
+        <f>0.98+0.81</f>
+        <v>1.79</v>
+      </c>
+      <c r="I6" s="4">
+        <f>1.3+1.08</f>
+        <v>2.38</v>
+      </c>
+      <c r="J6" s="4">
+        <f>1.73+1.44</f>
+        <v>3.17</v>
+      </c>
+      <c r="K6" s="4">
+        <f>2.21+1.85</f>
+        <v>4.0600000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <f>AVERAGE(B4:B6)</f>
+        <v>0.11</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" ref="C7:K7" si="0">AVERAGE(C4:C6)</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45333333333333331</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.73666666666666669</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.07</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.4366666666666668</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.78</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3766666666666665</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.1733333333333333</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>4.0600000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="4">
+        <f>0.31+0.24</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <f>0.55+0.43</f>
+        <v>0.98</v>
+      </c>
+      <c r="F8" s="4">
+        <f>0.81+0.64</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <f>1.11+0.88</f>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H8" s="4">
+        <f>1.62+1.3</f>
+        <v>2.92</v>
+      </c>
+      <c r="I8" s="4">
+        <f>2.27+1.84</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="J8" s="4">
+        <f>2.97+2.44</f>
+        <v>5.41</v>
+      </c>
+      <c r="K8" s="4">
+        <f>3.74+3.11</f>
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="D9" s="4">
+        <f>0.32+0.23</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E9" s="4">
+        <f>0.55+0.42</f>
+        <v>0.97</v>
+      </c>
+      <c r="F9" s="4">
+        <f>0.82+0.64</f>
+        <v>1.46</v>
+      </c>
+      <c r="G9" s="4">
+        <f>1.12+0.88</f>
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <f>1.64+1.31</f>
+        <v>2.95</v>
+      </c>
+      <c r="I9" s="4">
+        <f>2.28+1.89</f>
+        <v>4.17</v>
+      </c>
+      <c r="J9" s="4">
+        <f>2.99+2.5</f>
+        <v>5.49</v>
+      </c>
+      <c r="K9" s="4">
+        <f>3.78+3.11</f>
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="D10" s="4">
+        <f>0.31+0.25</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E10" s="4">
+        <f>0.54+0.44</f>
+        <v>0.98</v>
+      </c>
+      <c r="F10" s="4">
+        <f>0.8+0.66</f>
+        <v>1.46</v>
+      </c>
+      <c r="G10" s="4">
+        <f>1.09+0.89</f>
+        <v>1.98</v>
+      </c>
+      <c r="H10" s="4">
+        <f>1.63+1.34</f>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="I10" s="4">
+        <f>2.29+1.91</f>
+        <v>4.2</v>
+      </c>
+      <c r="J10" s="4">
+        <f>2.97+2.45</f>
+        <v>5.42</v>
+      </c>
+      <c r="K10" s="4">
+        <f>3.73+3.11</f>
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <f>AVERAGE(B8:B10)</f>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" ref="C11:K11" si="1">AVERAGE(C8:C10)</f>
+        <v>0.12333333333333334</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.55333333333333334</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97666666666666657</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4566666666666668</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
+        <v>2.9466666666666668</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="1"/>
+        <v>4.16</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>5.44</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="1"/>
+        <v>6.8599999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="J14" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4">
+        <f>0.26+0.23</f>
+        <v>0.49</v>
+      </c>
+      <c r="C15" s="4">
+        <f>0.48+0.41</f>
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <f>0.69+0.59</f>
+        <v>1.2799999999999998</v>
+      </c>
+      <c r="E15" s="4">
+        <f>0.9+0.76</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <f>1.08+0.91</f>
+        <v>1.9900000000000002</v>
+      </c>
+      <c r="G15" s="4">
+        <f>1.3+1.1</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="H15" s="4">
+        <f>1.57+1.32</f>
+        <v>2.89</v>
+      </c>
+      <c r="I15" s="4">
+        <f>1.8+1.51</f>
+        <v>3.31</v>
+      </c>
+      <c r="J15" s="4">
+        <f>1.99+1.66</f>
+        <v>3.65</v>
+      </c>
+      <c r="K15" s="4">
+        <f>2.16+1.8</f>
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4">
+        <f>0.29+0.22</f>
+        <v>0.51</v>
+      </c>
+      <c r="C16" s="4">
+        <f>0.51+0.4</f>
+        <v>0.91</v>
+      </c>
+      <c r="D16" s="4">
+        <f>0.72+0.57</f>
+        <v>1.29</v>
+      </c>
+      <c r="E16" s="4">
+        <f>0.92+0.75</f>
+        <v>1.67</v>
+      </c>
+      <c r="F16" s="4">
+        <f>1.11+0.9</f>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="G16" s="4">
+        <f>1.35+1.09</f>
+        <v>2.4400000000000004</v>
+      </c>
+      <c r="H16" s="4">
+        <f>1.6+1.3</f>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="I16" s="4">
+        <f>1.8+1.5</f>
+        <v>3.3</v>
+      </c>
+      <c r="J16" s="4">
+        <f>2+1.65</f>
+        <v>3.65</v>
+      </c>
+      <c r="K16" s="4">
+        <f>2.17+1.78</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4">
+        <f>0.28+0.23</f>
+        <v>0.51</v>
+      </c>
+      <c r="C17" s="4">
+        <f>0.49+0.41</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D17" s="4">
+        <f>0.69+0.59</f>
+        <v>1.2799999999999998</v>
+      </c>
+      <c r="E17" s="4">
+        <f>0.9+0.77</f>
+        <v>1.67</v>
+      </c>
+      <c r="F17" s="4">
+        <f>1.09+0.92</f>
+        <v>2.0100000000000002</v>
+      </c>
+      <c r="G17" s="4">
+        <f>1.33+1.11</f>
+        <v>2.4400000000000004</v>
+      </c>
+      <c r="H17" s="4">
+        <f>1.58+1.33</f>
+        <v>2.91</v>
+      </c>
+      <c r="I17" s="4">
+        <f>1.81+1.52</f>
+        <v>3.33</v>
+      </c>
+      <c r="J17" s="4">
+        <f>1.99+1.66</f>
+        <v>3.65</v>
+      </c>
+      <c r="K17" s="4">
+        <f>2.14+1.78</f>
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <f>AVERAGE(B15:B17)</f>
+        <v>0.5033333333333333</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:K18" si="2">AVERAGE(C15:C17)</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="2"/>
+        <v>1.2833333333333332</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0033333333333334</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
+        <v>2.4266666666666672</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000004</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="2"/>
+        <v>3.313333333333333</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>3.65</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="2"/>
+        <v>3.9433333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <f>0.24+0.18</f>
+        <v>0.42</v>
+      </c>
+      <c r="C19" s="4">
+        <f>0.44+0.36</f>
+        <v>0.8</v>
+      </c>
+      <c r="D19" s="4">
+        <f>0.66+0.54</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E19" s="4">
+        <f>0.85+0.7</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="F19" s="4">
+        <f>1.02+0.84</f>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <f>1.27+1.06</f>
+        <v>2.33</v>
+      </c>
+      <c r="H19" s="4">
+        <f>1.51+1.27</f>
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="I19" s="4">
+        <f>1.74+1.44</f>
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="J19" s="4">
+        <f>1.99+1.6</f>
+        <v>3.59</v>
+      </c>
+      <c r="K19" s="4">
+        <f>2.2+1.81</f>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4">
+        <f>0.25+0.17</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="C20" s="4">
+        <f>0.46+0.34</f>
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="4">
+        <f>0.68+0.53</f>
+        <v>1.21</v>
+      </c>
+      <c r="E20" s="4">
+        <f>0.87+0.68</f>
+        <v>1.55</v>
+      </c>
+      <c r="F20" s="4">
+        <f>1.03+0.82</f>
+        <v>1.85</v>
+      </c>
+      <c r="G20" s="4">
+        <f>1.29+1.04</f>
+        <v>2.33</v>
+      </c>
+      <c r="H20" s="4">
+        <f>1.52+1.21</f>
+        <v>2.73</v>
+      </c>
+      <c r="I20" s="4">
+        <f>1.75+1.43</f>
+        <v>3.1799999999999997</v>
+      </c>
+      <c r="J20" s="4">
+        <f>1.99+1.65</f>
+        <v>3.6399999999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <f>2.19+1.82</f>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4">
+        <f>0.24+0.18</f>
+        <v>0.42</v>
+      </c>
+      <c r="C21" s="4">
+        <f>0.44+0.35</f>
+        <v>0.79</v>
+      </c>
+      <c r="D21" s="4">
+        <f>0.66+0.54</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="E21" s="4">
+        <f>0.86+0.7</f>
+        <v>1.56</v>
+      </c>
+      <c r="F21" s="4">
+        <f>1.01+0.83</f>
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="G21" s="4">
+        <f>1.26+1.05</f>
+        <v>2.31</v>
+      </c>
+      <c r="H21" s="4">
+        <f>1.5+1.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="I21" s="4">
+        <f>1.73+1.44</f>
+        <v>3.17</v>
+      </c>
+      <c r="J21" s="4">
+        <f>1.99+1.67</f>
+        <v>3.66</v>
+      </c>
+      <c r="K21" s="4">
+        <f>2.19+1.82</f>
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5">
+        <f>AVERAGE(B19:B21)</f>
+        <v>0.42</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" ref="C22:K22" si="3">AVERAGE(C19:C21)</f>
+        <v>0.79666666666666675</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2033333333333334</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5533333333333335</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="3"/>
+        <v>1.8499999999999999</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.3233333333333337</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="3"/>
+        <v>2.7533333333333334</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="3"/>
+        <v>3.1766666666666663</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>3.6300000000000003</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="3"/>
+        <v>4.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Calibração/Motores/CalibrandoMotores.xlsx
+++ b/Calibração/Motores/CalibrandoMotores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITALO DIAS\Desktop\TCC-Drone\Calibração\Motores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36DE84-1D72-48B7-9804-A57051C11750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C1EB2B-7C2F-4C8E-841C-245DE3460B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{097909A5-12FA-4257-A99D-C2302BCA1918}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{097909A5-12FA-4257-A99D-C2302BCA1918}"/>
   </bookViews>
   <sheets>
     <sheet name="Casa 03-08-2021" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>correnteA</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Experimento realizado no dia 09/08/2021 às 11:20</t>
+  </si>
+  <si>
+    <t>Motor A</t>
+  </si>
+  <si>
+    <t>Motor B</t>
+  </si>
+  <si>
+    <t>Corrente Desejada</t>
   </si>
 </sst>
 </file>
@@ -827,69 +836,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Validando</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> o modelo dos motores - Corrente esperada x Corrente consumida</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9669376005418679E-2"/>
+          <c:y val="4.2056856187290971E-2"/>
+          <c:w val="0.78424191431716195"/>
+          <c:h val="0.840110297667641"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -902,7 +861,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>correnteEsperada</c:v>
+                  <c:v>Corrente Desejada</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -931,6 +890,42 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Laboratório 09-08-2021'!$B$14:$K$14</c:f>
@@ -986,7 +981,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MédiaA</c:v>
+                  <c:v>Motor A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1011,6 +1006,42 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Laboratório 09-08-2021'!$B$18:$K$18</c:f>
@@ -1066,7 +1097,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MédiaB</c:v>
+                  <c:v>Motor B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1091,6 +1122,42 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="10"/>
+              <c:pt idx="0">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>30</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>40</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>50</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>60</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>70</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>80</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>90</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Laboratório 09-08-2021'!$B$22:$K$22</c:f>
@@ -1178,8 +1245,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR"/>
-                  <a:t>Iteração</a:t>
+                  <a:t>Porcentagem da corrente</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> desejada (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1212,6 +1284,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1376,6 +1449,651 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85859474218948439"/>
+          <c:y val="0.37325775331595257"/>
+          <c:w val="0.13294479193125053"/>
+          <c:h val="0.21704325002852903"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14438670166229223"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.68993982826716438"/>
+          <c:h val="0.78111840186643333"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laboratório 09-08-2021'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motor A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Laboratório 09-08-2021'!$B$3:$K$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Laboratório 09-08-2021'!$C$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Laboratório 09-08-2021'!$B$7:$K$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Laboratório 09-08-2021'!$C$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4366666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3766666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1733333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA87-4140-8656-D28F74A0C53C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Laboratório 09-08-2021'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Motor B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Laboratório 09-08-2021'!$B$3:$K$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Laboratório 09-08-2021'!$C$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Laboratório 09-08-2021'!$B$11:$K$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Laboratório 09-08-2021'!$C$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97666666666666657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4566666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9466666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8599999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EA87-4140-8656-D28F74A0C53C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1671220063"/>
+        <c:axId val="1671221727"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1671220063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>PWM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671221727"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671221727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Corrente Consumida</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" baseline="0"/>
+                  <a:t> (A)</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671220063"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84082022251998612"/>
+          <c:y val="0.30613371245261012"/>
+          <c:w val="0.14946196734968362"/>
+          <c:h val="0.28182925051035285"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1529,6 +2247,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2182,6 +2940,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2586,10 +3860,10 @@
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2611,6 +3885,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F537DE23-4D90-40A3-9250-C8DF2C2F1244}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2922,12 +4232,12 @@
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2944,7 +4254,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -2961,7 +4271,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2996,7 +4306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3039,7 +4349,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>0.12</v>
@@ -3079,7 +4389,7 @@
         <v>3.91</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>0.12</v>
@@ -3119,7 +4429,7 @@
         <v>3.9299999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -3164,7 +4474,7 @@
         <v>3.9033333333333338</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -3206,7 +4516,7 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -3247,7 +4557,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>0.12</v>
@@ -3288,7 +4598,7 @@
         <v>6.71</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -3333,7 +4643,7 @@
         <v>6.7166666666666677</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -3341,7 +4651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -3349,7 +4659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -3384,7 +4694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -3429,7 +4739,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <f>0.26+0.17</f>
@@ -3472,7 +4782,7 @@
         <v>3.8600000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <f>0.26+0.17</f>
@@ -3515,7 +4825,7 @@
         <v>3.8600000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>8</v>
       </c>
@@ -3560,7 +4870,7 @@
         <v>3.8566666666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -3605,7 +4915,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <f>0.26+0.16</f>
@@ -3648,7 +4958,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
         <f>0.23+0.19</f>
@@ -3691,7 +5001,7 @@
         <v>3.9899999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -3750,16 +5060,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1423AF-BC08-4477-91EE-FB2773BC54D5}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3776,7 +5086,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3793,7 +5103,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -3828,7 +5138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -3874,7 +5184,7 @@
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4">
         <v>0.11</v>
@@ -3915,7 +5225,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4">
         <v>0.11</v>
@@ -3956,9 +5266,9 @@
         <v>4.0600000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <f>AVERAGE(B4:B6)</f>
@@ -4001,7 +5311,7 @@
         <v>4.0600000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
@@ -4044,7 +5354,7 @@
         <v>6.85</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>0.12</v>
@@ -4085,7 +5395,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>0.12</v>
@@ -4126,9 +5436,9 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5">
         <f>AVERAGE(B8:B10)</f>
@@ -4171,7 +5481,7 @@
         <v>6.8599999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +5489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -4187,9 +5497,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>0.4</v>
@@ -4222,7 +5532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>0</v>
       </c>
@@ -4267,7 +5577,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <f>0.29+0.22</f>
@@ -4310,7 +5620,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <f>0.28+0.23</f>
@@ -4353,9 +5663,9 @@
         <v>3.92</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
         <f>AVERAGE(B15:B17)</f>
@@ -4398,7 +5708,7 @@
         <v>3.9433333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -4443,7 +5753,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <f>0.25+0.17</f>
@@ -4486,7 +5796,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4">
         <f>0.24+0.18</f>
@@ -4529,9 +5839,9 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5">
         <f>AVERAGE(B19:B21)</f>
